--- a/data/trans_orig/P6901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B238254B-A5B1-43A7-9993-0EEB8F8BB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4521F259-FFE5-4677-A87A-342808CCD36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A4C3F5F-11BD-4196-ADC4-CCC6EA92D82D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F48CB18-3825-48C3-9608-5C2DAC59DA59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>86,39%</t>
   </si>
   <si>
-    <t>58,19%</t>
+    <t>63,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,19 +86,19 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>41,81%</t>
+    <t>36,29%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>71,08%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>76,77%</t>
   </si>
   <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,55 +254,55 @@
     <t>77,59%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
   <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,1051 +311,1033 @@
     <t>75,92%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>73,81%</t>
   </si>
   <si>
-    <t>63,65%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
   </si>
   <si>
     <t>82,4%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>70,57%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>69,93%</t>
+    <t>80,48%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>70,6%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>30,07%</t>
+    <t>19,52%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>29,4%</t>
   </si>
 </sst>
 </file>
@@ -1767,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4F28A4-B462-4A51-A5FF-F822CCA2EF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C418A3E-CBBE-4E79-ACC2-E1ED00448DAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2830,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F6A15-B04D-4B7C-8C35-0505CC8EB28E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5346B1-21CF-4321-AFF9-A3E9B311423E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,7 +3577,7 @@
         <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -3604,13 +3586,13 @@
         <v>104417</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3607,13 @@
         <v>20212</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3640,13 +3622,13 @@
         <v>16870</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -3655,13 +3637,13 @@
         <v>37082</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3711,13 @@
         <v>243376</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -3744,13 +3726,13 @@
         <v>166663</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>386</v>
@@ -3759,13 +3741,13 @@
         <v>410038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3762,13 @@
         <v>84178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3795,13 +3777,13 @@
         <v>46998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3810,13 +3792,13 @@
         <v>131176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A89FBEE-B747-4D17-A11B-AFAC46DCFB2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060A887A-77D5-4768-827F-BA6D51CF1640}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +3999,13 @@
         <v>5188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4032,13 +4014,13 @@
         <v>3622</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4047,13 +4029,13 @@
         <v>8810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4050,13 @@
         <v>2861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4083,13 +4065,13 @@
         <v>2508</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4098,13 +4080,13 @@
         <v>5369</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4154,13 @@
         <v>34594</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4187,10 +4169,10 @@
         <v>21756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4202,13 +4184,13 @@
         <v>56351</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4205,13 @@
         <v>12030</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4238,13 +4220,13 @@
         <v>2029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4253,13 +4235,13 @@
         <v>14058</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4309,13 @@
         <v>72296</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4342,13 +4324,13 @@
         <v>50500</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4357,13 +4339,13 @@
         <v>122795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4360,13 @@
         <v>24688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4393,13 +4375,13 @@
         <v>5052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4408,13 +4390,13 @@
         <v>29740</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4464,13 @@
         <v>88290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4497,13 +4479,13 @@
         <v>55623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4512,13 +4494,13 @@
         <v>143914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4515,13 @@
         <v>21645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4548,13 +4530,13 @@
         <v>9124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -4563,13 +4545,13 @@
         <v>30768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4619,13 @@
         <v>60427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -4652,13 +4634,13 @@
         <v>52253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4667,13 +4649,13 @@
         <v>112680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4670,13 @@
         <v>27983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4703,13 +4685,13 @@
         <v>13830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -4718,13 +4700,13 @@
         <v>41813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4774,13 @@
         <v>260795</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -4807,13 +4789,13 @@
         <v>183756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -4822,13 +4804,13 @@
         <v>444551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4825,13 @@
         <v>89206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4858,13 +4840,13 @@
         <v>32542</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -4873,13 +4855,13 @@
         <v>121748</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73472F-624F-42CE-B3EA-237708BB66E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9423483B-2D3A-4142-A1FB-EBBF187A45E1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5062,13 @@
         <v>7143</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5095,13 +5077,13 @@
         <v>9319</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5110,13 +5092,13 @@
         <v>16461</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5113,13 @@
         <v>7070</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5146,13 +5128,13 @@
         <v>1972</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5161,13 +5143,13 @@
         <v>9042</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5217,13 @@
         <v>50145</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5250,13 +5232,13 @@
         <v>38274</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -5265,13 +5247,13 @@
         <v>88418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5268,13 @@
         <v>10167</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5301,13 +5283,13 @@
         <v>9720</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5316,7 +5298,7 @@
         <v>19888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>367</v>
@@ -5408,10 +5390,10 @@
         <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -5420,13 +5402,13 @@
         <v>170430</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5423,13 @@
         <v>32746</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -5456,13 +5438,13 @@
         <v>22507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -5471,13 +5453,13 @@
         <v>55252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5527,13 @@
         <v>43324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5560,13 +5542,13 @@
         <v>61463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -5575,13 +5557,13 @@
         <v>104788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5578,13 @@
         <v>14713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5611,13 +5593,13 @@
         <v>18315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -5626,13 +5608,13 @@
         <v>33028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5682,13 @@
         <v>73535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5715,13 +5697,13 @@
         <v>79687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5730,13 +5712,13 @@
         <v>153221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5733,13 @@
         <v>30471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5766,13 +5748,13 @@
         <v>33229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -5781,13 +5763,13 @@
         <v>63700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5837,13 @@
         <v>257851</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>374</v>
@@ -5870,13 +5852,13 @@
         <v>275468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="M19" s="7">
         <v>622</v>
@@ -5885,13 +5867,13 @@
         <v>533318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5888,13 @@
         <v>95167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -5921,13 +5903,13 @@
         <v>85743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5936,13 +5918,13 @@
         <v>180910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4521F259-FFE5-4677-A87A-342808CCD36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{777C4C42-1F18-4C92-81B1-F80C72CAA0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F48CB18-3825-48C3-9608-5C2DAC59DA59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FDD29EC-D120-48D3-B569-D40396E707AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,7 +77,7 @@
     <t>86,39%</t>
   </si>
   <si>
-    <t>63,71%</t>
+    <t>58,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,19 +86,19 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,55 +110,55 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,29%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>70,15%</t>
+    <t>68,75%</t>
   </si>
   <si>
     <t>87,16%</t>
@@ -167,19 +167,19 @@
     <t>24,63%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -188,999 +188,993 @@
     <t>12,84%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
     <t>24,48%</t>
   </si>
   <si>
@@ -1190,9 +1184,6 @@
     <t>29,89%</t>
   </si>
   <si>
-    <t>74,65%</t>
-  </si>
-  <si>
     <t>60,89%</t>
   </si>
   <si>
@@ -1215,9 +1206,6 @@
   </si>
   <si>
     <t>83,7%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
   </si>
   <si>
     <t>14,43%</t>
@@ -1749,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C418A3E-CBBE-4E79-ACC2-E1ED00448DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12F926-257F-4BDD-80FB-45E1A162E7A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2812,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5346B1-21CF-4321-AFF9-A3E9B311423E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A21F623-4953-4043-B6EB-301034CB758D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3252,7 +3240,7 @@
         <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3261,13 +3249,13 @@
         <v>49089</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -3276,13 +3264,13 @@
         <v>119880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3285,13 @@
         <v>22160</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -3312,13 +3300,13 @@
         <v>12242</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -3327,13 +3315,13 @@
         <v>34402</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3389,13 @@
         <v>58159</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3416,13 +3404,13 @@
         <v>39345</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -3431,13 +3419,13 @@
         <v>97505</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3440,13 @@
         <v>21398</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3467,13 +3455,13 @@
         <v>13634</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3482,13 +3470,13 @@
         <v>35031</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3544,13 @@
         <v>57190</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -3571,13 +3559,13 @@
         <v>47226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -3586,13 +3574,13 @@
         <v>104417</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3595,13 @@
         <v>20212</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3622,13 +3610,13 @@
         <v>16870</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -3637,13 +3625,13 @@
         <v>37082</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3699,13 @@
         <v>243376</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -3726,13 +3714,13 @@
         <v>166663</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>386</v>
@@ -3741,13 +3729,13 @@
         <v>410038</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3750,13 @@
         <v>84178</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3777,13 +3765,13 @@
         <v>46998</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3792,10 +3780,10 @@
         <v>131176</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>226</v>
@@ -3875,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060A887A-77D5-4768-827F-BA6D51CF1640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B159799-9090-4CE9-914D-778FE67D04AA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4187,10 +4175,10 @@
         <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4193,13 @@
         <v>12030</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4220,13 +4208,13 @@
         <v>2029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4235,13 +4223,13 @@
         <v>14058</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4297,13 @@
         <v>72296</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4324,13 +4312,13 @@
         <v>50500</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4339,13 +4327,13 @@
         <v>122795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4348,13 @@
         <v>24688</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4375,13 +4363,13 @@
         <v>5052</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4390,13 +4378,13 @@
         <v>29740</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4452,13 @@
         <v>88290</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4479,13 +4467,13 @@
         <v>55623</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4494,13 +4482,13 @@
         <v>143914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4503,13 @@
         <v>21645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4530,13 +4518,13 @@
         <v>9124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -4545,13 +4533,13 @@
         <v>30768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4607,13 @@
         <v>60427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -4634,13 +4622,13 @@
         <v>52253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4649,13 +4637,13 @@
         <v>112680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4658,13 @@
         <v>27983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4685,13 +4673,13 @@
         <v>13830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -4700,13 +4688,13 @@
         <v>41813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4762,13 @@
         <v>260795</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -4789,13 +4777,13 @@
         <v>183756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -4804,13 +4792,13 @@
         <v>444551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4813,13 @@
         <v>89206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4840,13 +4828,13 @@
         <v>32542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -4855,13 +4843,13 @@
         <v>121748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9423483B-2D3A-4142-A1FB-EBBF187A45E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5905612E-8E85-4A77-BC9A-5565EEE7E68B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5050,13 @@
         <v>7143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5077,13 +5065,13 @@
         <v>9319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5092,13 +5080,13 @@
         <v>16461</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5101,13 @@
         <v>7070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5128,13 +5116,13 @@
         <v>1972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5143,13 +5131,13 @@
         <v>9042</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5205,13 @@
         <v>50145</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5232,13 +5220,13 @@
         <v>38274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -5247,13 +5235,13 @@
         <v>88418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5256,13 @@
         <v>10167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5283,13 +5271,13 @@
         <v>9720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5298,13 +5286,13 @@
         <v>19888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5360,13 @@
         <v>83704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -5387,13 +5375,13 @@
         <v>86725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -5402,13 +5390,13 @@
         <v>170430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5411,13 @@
         <v>32746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -5438,13 +5426,13 @@
         <v>22507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -5453,13 +5441,13 @@
         <v>55252</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5515,13 @@
         <v>43324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5542,13 +5530,13 @@
         <v>61463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -5557,13 +5545,13 @@
         <v>104788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5566,13 @@
         <v>14713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5593,13 +5581,13 @@
         <v>18315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -5608,13 +5596,13 @@
         <v>33028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5670,13 @@
         <v>73535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5697,13 +5685,13 @@
         <v>79687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5712,13 +5700,13 @@
         <v>153221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5721,13 @@
         <v>30471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5748,13 +5736,13 @@
         <v>33229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -5763,13 +5751,13 @@
         <v>63700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5825,13 @@
         <v>257851</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>374</v>
@@ -5852,13 +5840,13 @@
         <v>275468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>622</v>
@@ -5867,10 +5855,10 @@
         <v>533318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>110</v>
@@ -5888,13 +5876,13 @@
         <v>95167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -5903,13 +5891,13 @@
         <v>85743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5918,13 +5906,13 @@
         <v>180910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{777C4C42-1F18-4C92-81B1-F80C72CAA0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD214BC-A163-41A7-917B-579466700E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FDD29EC-D120-48D3-B569-D40396E707AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22084EB6-4A12-429E-86A3-AB3DCC8B059B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,13 +71,13 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>58,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,19 +86,19 @@
     <t>42,65%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>41,81%</t>
   </si>
   <si>
     <t>57,35%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,1135 +197,1165 @@
     <t>71,08%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>76,77%</t>
   </si>
   <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
   </si>
   <si>
     <t>74,65%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>25,35%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>70,57%</t>
   </si>
   <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>29,43%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>80,48%</t>
+    <t>69,93%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>70,6%</t>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>19,52%</t>
+    <t>30,07%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>29,4%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12F926-257F-4BDD-80FB-45E1A162E7A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319CF2AF-55C5-4CF5-81A6-C0826748D12D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2800,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A21F623-4953-4043-B6EB-301034CB758D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DE5C06-23FD-4F59-AA0C-47B222257F0D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3240,7 +3270,7 @@
         <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3249,13 +3279,13 @@
         <v>49089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -3264,13 +3294,13 @@
         <v>119880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3315,13 @@
         <v>22160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -3300,13 +3330,13 @@
         <v>12242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -3315,13 +3345,13 @@
         <v>34402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3419,13 @@
         <v>58159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3404,13 +3434,13 @@
         <v>39345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>89</v>
@@ -3419,13 +3449,13 @@
         <v>97505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3470,13 @@
         <v>21398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3455,13 +3485,13 @@
         <v>13634</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3470,13 +3500,13 @@
         <v>35031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3574,13 @@
         <v>57190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -3559,13 +3589,13 @@
         <v>47226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -3574,13 +3604,13 @@
         <v>104417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3625,13 @@
         <v>20212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3610,13 +3640,13 @@
         <v>16870</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -3625,13 +3655,13 @@
         <v>37082</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3729,13 @@
         <v>243376</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -3714,13 +3744,13 @@
         <v>166663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>386</v>
@@ -3729,13 +3759,13 @@
         <v>410038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3780,13 @@
         <v>84178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
@@ -3765,13 +3795,13 @@
         <v>46998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -3780,13 +3810,13 @@
         <v>131176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B159799-9090-4CE9-914D-778FE67D04AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38592553-F3D4-4F8F-91C8-CDFF4E5915CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +4017,13 @@
         <v>5188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4002,13 +4032,13 @@
         <v>3622</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4017,13 +4047,13 @@
         <v>8810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4068,13 @@
         <v>2861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4053,13 +4083,13 @@
         <v>2508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4068,13 +4098,13 @@
         <v>5369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4172,13 @@
         <v>34594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4157,10 +4187,10 @@
         <v>21756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4172,13 +4202,13 @@
         <v>56351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4223,13 @@
         <v>12030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4208,13 +4238,13 @@
         <v>2029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4223,13 +4253,13 @@
         <v>14058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4327,13 @@
         <v>72296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4312,13 +4342,13 @@
         <v>50500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4327,13 +4357,13 @@
         <v>122795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4378,13 @@
         <v>24688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4363,13 +4393,13 @@
         <v>5052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4378,13 +4408,13 @@
         <v>29740</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4482,13 @@
         <v>88290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>55</v>
@@ -4467,13 +4497,13 @@
         <v>55623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -4482,13 +4512,13 @@
         <v>143914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4533,13 @@
         <v>21645</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4518,13 +4548,13 @@
         <v>9124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -4533,13 +4563,13 @@
         <v>30768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4637,13 @@
         <v>60427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -4622,13 +4652,13 @@
         <v>52253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4637,13 +4667,13 @@
         <v>112680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4688,13 @@
         <v>27983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4673,13 +4703,13 @@
         <v>13830</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -4688,13 +4718,13 @@
         <v>41813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4792,13 @@
         <v>260795</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -4777,13 +4807,13 @@
         <v>183756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>417</v>
@@ -4792,13 +4822,13 @@
         <v>444551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4843,13 @@
         <v>89206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4828,13 +4858,13 @@
         <v>32542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -4843,13 +4873,13 @@
         <v>121748</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5905612E-8E85-4A77-BC9A-5565EEE7E68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516657E4-9F33-4CAF-B311-4D9363F8C639}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5080,13 @@
         <v>7143</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5065,13 +5095,13 @@
         <v>9319</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5080,13 +5110,13 @@
         <v>16461</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5131,13 @@
         <v>7070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5116,13 +5146,13 @@
         <v>1972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5131,13 +5161,13 @@
         <v>9042</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5235,13 @@
         <v>50145</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -5220,13 +5250,13 @@
         <v>38274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>106</v>
@@ -5235,13 +5265,13 @@
         <v>88418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5286,13 @@
         <v>10167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -5271,13 +5301,13 @@
         <v>9720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -5286,13 +5316,13 @@
         <v>19888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5390,13 @@
         <v>83704</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -5375,13 +5405,13 @@
         <v>86725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>195</v>
@@ -5390,13 +5420,13 @@
         <v>170430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5441,13 @@
         <v>32746</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -5426,13 +5456,13 @@
         <v>22507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -5441,13 +5471,13 @@
         <v>55252</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5545,13 @@
         <v>43324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5530,13 +5560,13 @@
         <v>61463</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -5545,13 +5575,13 @@
         <v>104788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5596,13 @@
         <v>14713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5581,13 +5611,13 @@
         <v>18315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -5596,13 +5626,13 @@
         <v>33028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5700,13 @@
         <v>73535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5685,13 +5715,13 @@
         <v>79687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -5700,13 +5730,13 @@
         <v>153221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5751,13 @@
         <v>30471</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -5736,13 +5766,13 @@
         <v>33229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -5751,13 +5781,13 @@
         <v>63700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5855,13 @@
         <v>257851</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>374</v>
@@ -5840,13 +5870,13 @@
         <v>275468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="M19" s="7">
         <v>622</v>
@@ -5855,13 +5885,13 @@
         <v>533318</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5906,13 @@
         <v>95167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -5891,13 +5921,13 @@
         <v>85743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>190</v>
@@ -5906,13 +5936,13 @@
         <v>180910</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD214BC-A163-41A7-917B-579466700E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC40ECA0-67A8-4779-B359-6A814207DBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22084EB6-4A12-429E-86A3-AB3DCC8B059B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0DE4222F-2186-484B-A24E-5F110A0791B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,960 +68,819 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
     <t>30,76%</t>
   </si>
   <si>
@@ -1046,316 +905,268 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
     <t>77,04%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>22,96%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319CF2AF-55C5-4CF5-81A6-C0826748D12D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB449A54-CE72-4BF2-BC1D-DFCE1EDA0FD8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1885,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>13020</v>
+        <v>61454</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1900,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>2583</v>
+        <v>25823</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1915,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="N4" s="7">
-        <v>15603</v>
+        <v>87277</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1936,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>2051</v>
+        <v>17877</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1951,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>3473</v>
+        <v>6418</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1966,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>5523</v>
+        <v>24295</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1987,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2002,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2017,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2040,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>48435</v>
+        <v>103768</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2055,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>23241</v>
+        <v>40534</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2070,10 +1881,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="N7" s="7">
-        <v>71674</v>
+        <v>144301</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2091,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>15826</v>
+        <v>42213</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2106,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>2945</v>
+        <v>12263</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2121,10 +1932,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>18772</v>
+        <v>54476</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2142,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2157,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2172,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2195,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>103768</v>
+        <v>85306</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2210,10 +2021,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>40534</v>
+        <v>39862</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2225,10 +2036,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N10" s="7">
-        <v>144301</v>
+        <v>125167</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2246,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>42213</v>
+        <v>24638</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2261,10 +2072,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>12263</v>
+        <v>6671</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2276,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N11" s="7">
-        <v>54476</v>
+        <v>31310</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2297,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2327,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2350,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D13" s="7">
-        <v>85306</v>
+        <v>104051</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2365,10 +2176,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>39862</v>
+        <v>65357</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2380,10 +2191,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>125167</v>
+        <v>169408</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2401,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>24638</v>
+        <v>32998</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2416,10 +2227,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>6671</v>
+        <v>23194</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2431,10 +2242,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>31310</v>
+        <v>56192</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2452,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2467,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2482,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2499,55 +2310,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>334</v>
       </c>
       <c r="D16" s="7">
-        <v>104051</v>
+        <v>354578</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>167</v>
+      </c>
+      <c r="I16" s="7">
+        <v>171575</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>63</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65357</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>501</v>
+      </c>
+      <c r="N16" s="7">
+        <v>526154</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>166</v>
-      </c>
-      <c r="N16" s="7">
-        <v>169408</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2367,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7">
-        <v>32998</v>
+        <v>117727</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>48</v>
+      </c>
+      <c r="I17" s="7">
+        <v>48546</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23194</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>164</v>
+      </c>
+      <c r="N17" s="7">
+        <v>166273</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>57</v>
-      </c>
-      <c r="N17" s="7">
-        <v>56192</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2622,10 +2433,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2637,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2653,171 +2464,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>334</v>
-      </c>
-      <c r="D19" s="7">
-        <v>354578</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>167</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171575</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>501</v>
-      </c>
-      <c r="N19" s="7">
-        <v>526154</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>116</v>
-      </c>
-      <c r="D20" s="7">
-        <v>117727</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>48</v>
-      </c>
-      <c r="I20" s="7">
-        <v>48546</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>164</v>
-      </c>
-      <c r="N20" s="7">
-        <v>166273</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2830,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DE5C06-23FD-4F59-AA0C-47B222257F0D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FEFAB9-C7BD-4ED0-8E56-D140145AE99D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2847,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>14850</v>
+        <v>57235</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>5159</v>
+        <v>31002</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="N4" s="7">
-        <v>20009</v>
+        <v>88237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>7287</v>
+        <v>20408</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>2195</v>
+        <v>4252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>9482</v>
+        <v>24661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>77643</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3065,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>35254</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3080,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>112898</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3103,49 +2758,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>42385</v>
+        <v>70791</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>25843</v>
+        <v>49089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="N7" s="7">
-        <v>68228</v>
+        <v>119880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,49 +2809,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
-        <v>13122</v>
+        <v>22160</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>2057</v>
+        <v>12242</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>15179</v>
+        <v>34402</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7">
-        <v>55507</v>
+        <v>92951</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3220,10 +2875,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>27900</v>
+        <v>61331</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3235,10 +2890,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="N9" s="7">
-        <v>83407</v>
+        <v>154282</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3258,49 +2913,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>70791</v>
+        <v>58159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>49089</v>
+        <v>39345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>119880</v>
+        <v>97505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,49 +2964,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>22160</v>
+        <v>21398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>12242</v>
+        <v>13634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>34402</v>
+        <v>35031</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>92951</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3375,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>61331</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3390,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>154282</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3413,49 +3068,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>58159</v>
+        <v>57190</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>39345</v>
+        <v>47226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>97505</v>
+        <v>104417</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,49 +3119,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>21398</v>
+        <v>20212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>13634</v>
+        <v>16870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>35031</v>
+        <v>37082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>77402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3530,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3545,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>141499</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3562,55 +3217,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>57190</v>
+        <v>243376</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="I16" s="7">
-        <v>47226</v>
+        <v>166663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>386</v>
       </c>
       <c r="N16" s="7">
-        <v>104417</v>
+        <v>410038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>20212</v>
+        <v>84178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>16870</v>
+        <v>46998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="N17" s="7">
-        <v>37082</v>
+        <v>131176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7">
-        <v>77402</v>
+        <v>327554</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3685,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>213661</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3700,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>136</v>
+        <v>510</v>
       </c>
       <c r="N18" s="7">
-        <v>141499</v>
+        <v>541214</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3716,171 +3371,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>234</v>
-      </c>
-      <c r="D19" s="7">
-        <v>243376</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>152</v>
-      </c>
-      <c r="I19" s="7">
-        <v>166663</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>386</v>
-      </c>
-      <c r="N19" s="7">
-        <v>410038</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7">
-        <v>84178</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>44</v>
-      </c>
-      <c r="I20" s="7">
-        <v>46998</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>124</v>
-      </c>
-      <c r="N20" s="7">
-        <v>131176</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>314</v>
-      </c>
-      <c r="D21" s="7">
-        <v>327554</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>196</v>
-      </c>
-      <c r="I21" s="7">
-        <v>213661</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>541214</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3893,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38592553-F3D4-4F8F-91C8-CDFF4E5915CF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43896B7E-228E-4331-84D1-83228CC11C23}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3910,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>5188</v>
+        <v>39783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>3622</v>
+        <v>25379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="N4" s="7">
-        <v>8810</v>
+        <v>65161</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +3561,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>2861</v>
+        <v>14890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>2508</v>
+        <v>4536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>5369</v>
+        <v>19427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4128,10 +3627,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4143,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4166,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>34594</v>
+        <v>72296</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>21756</v>
+        <v>50500</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="N7" s="7">
-        <v>56351</v>
+        <v>122795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,49 +3716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>12030</v>
+        <v>24688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2029</v>
+        <v>5052</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>14058</v>
+        <v>29740</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4283,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4298,10 +3797,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4321,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>72296</v>
+        <v>88290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>50500</v>
+        <v>55623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="N10" s="7">
-        <v>122795</v>
+        <v>143914</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +3871,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>24688</v>
+        <v>21645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>5052</v>
+        <v>9124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>29740</v>
+        <v>30768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4438,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4453,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4476,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>88290</v>
+        <v>60427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>55623</v>
+        <v>52253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>143914</v>
+        <v>112680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,49 +4026,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>21645</v>
+        <v>27983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>9124</v>
+        <v>13830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>30768</v>
+        <v>41813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4593,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4608,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4625,55 +4124,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="D16" s="7">
-        <v>60427</v>
+        <v>260795</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="I16" s="7">
-        <v>52253</v>
+        <v>183756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>106</v>
+        <v>417</v>
       </c>
       <c r="N16" s="7">
-        <v>112680</v>
+        <v>444551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,49 +4181,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D17" s="7">
-        <v>27983</v>
+        <v>89206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>13830</v>
+        <v>32542</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="N17" s="7">
-        <v>41813</v>
+        <v>121748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4748,10 +4247,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4763,10 +4262,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4779,171 +4278,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>241</v>
-      </c>
-      <c r="D19" s="7">
-        <v>260795</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
-        <v>176</v>
-      </c>
-      <c r="I19" s="7">
-        <v>183756</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M19" s="7">
-        <v>417</v>
-      </c>
-      <c r="N19" s="7">
-        <v>444551</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>81</v>
-      </c>
-      <c r="D20" s="7">
-        <v>89206</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="7">
-        <v>31</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32542</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M20" s="7">
-        <v>112</v>
-      </c>
-      <c r="N20" s="7">
-        <v>121748</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4956,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516657E4-9F33-4CAF-B311-4D9363F8C639}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FB90FF-4AE8-4922-B58E-64CCC0A30320}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4973,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>7143</v>
+        <v>54864</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="I4" s="7">
-        <v>9319</v>
+        <v>43734</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
-        <v>16461</v>
+        <v>98599</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>7070</v>
+        <v>16351</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>1972</v>
+        <v>10947</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>9042</v>
+        <v>27298</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5191,10 +4534,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5206,10 +4549,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5229,49 +4572,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
-        <v>50145</v>
+        <v>80382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I7" s="7">
-        <v>38274</v>
+        <v>78454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="N7" s="7">
-        <v>88418</v>
+        <v>158835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +4623,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>10167</v>
+        <v>31601</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>9720</v>
+        <v>20276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>19888</v>
+        <v>51877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5346,10 +4689,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5361,10 +4704,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5384,49 +4727,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>83704</v>
+        <v>41066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>86725</v>
+        <v>79887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="N10" s="7">
-        <v>170430</v>
+        <v>120952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,49 +4778,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>32746</v>
+        <v>14211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>22507</v>
+        <v>17021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>55252</v>
+        <v>31232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5501,25 +4844,25 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5539,49 +4882,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7">
-        <v>43324</v>
+        <v>70665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="I13" s="7">
-        <v>61463</v>
+        <v>74186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>104788</v>
+        <v>144851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,49 +4933,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>14713</v>
+        <v>30365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>18315</v>
+        <v>29710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>33028</v>
+        <v>60075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +4984,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5656,10 +4999,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5671,10 +5014,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5688,55 +5031,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7">
-        <v>73535</v>
+        <v>246977</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>117</v>
+        <v>374</v>
       </c>
       <c r="I16" s="7">
-        <v>79687</v>
+        <v>276261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>189</v>
+        <v>622</v>
       </c>
       <c r="N16" s="7">
-        <v>153221</v>
+        <v>523238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +5088,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>30471</v>
+        <v>92528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7">
-        <v>33229</v>
+        <v>77954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="N17" s="7">
-        <v>63700</v>
+        <v>170482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,10 +5139,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5811,10 +5154,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5826,10 +5169,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5842,171 +5185,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>248</v>
-      </c>
-      <c r="D19" s="7">
-        <v>257851</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" s="7">
-        <v>374</v>
-      </c>
-      <c r="I19" s="7">
-        <v>275468</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="M19" s="7">
-        <v>622</v>
-      </c>
-      <c r="N19" s="7">
-        <v>533318</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>90</v>
-      </c>
-      <c r="D20" s="7">
-        <v>95167</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H20" s="7">
-        <v>100</v>
-      </c>
-      <c r="I20" s="7">
-        <v>85743</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M20" s="7">
-        <v>190</v>
-      </c>
-      <c r="N20" s="7">
-        <v>180910</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
